--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vtn-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H2">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I2">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J2">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.08979185275661</v>
+        <v>0.3530253333333334</v>
       </c>
       <c r="N2">
-        <v>2.08979185275661</v>
+        <v>1.059076</v>
       </c>
       <c r="O2">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="P2">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="Q2">
-        <v>22.9272833290516</v>
+        <v>4.501800349861778</v>
       </c>
       <c r="R2">
-        <v>22.9272833290516</v>
+        <v>40.51620314875601</v>
       </c>
       <c r="S2">
-        <v>0.1810824048255985</v>
+        <v>0.008198050144886022</v>
       </c>
       <c r="T2">
-        <v>0.1810824048255985</v>
+        <v>0.008198050144886023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9710846555405</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H3">
-        <v>10.9710846555405</v>
+        <v>38.256181</v>
       </c>
       <c r="I3">
-        <v>0.2669722448236684</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J3">
-        <v>0.2669722448236684</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9912166123230201</v>
+        <v>2.310677666666666</v>
       </c>
       <c r="N3">
-        <v>0.9912166123230201</v>
+        <v>6.932033</v>
       </c>
       <c r="O3">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937062</v>
       </c>
       <c r="P3">
-        <v>0.3217182372452201</v>
+        <v>0.3410998794937063</v>
       </c>
       <c r="Q3">
-        <v>10.87472136577392</v>
+        <v>29.46590101621922</v>
       </c>
       <c r="R3">
-        <v>10.87472136577392</v>
+        <v>265.193109145973</v>
       </c>
       <c r="S3">
-        <v>0.08588983999806994</v>
+        <v>0.05365918417564431</v>
       </c>
       <c r="T3">
-        <v>0.08588983999806994</v>
+        <v>0.05365918417564433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2889512642137</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H4">
-        <v>20.2889512642137</v>
+        <v>38.256181</v>
       </c>
       <c r="I4">
-        <v>0.4937147997841498</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J4">
-        <v>0.4937147997841498</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.08979185275661</v>
+        <v>0.07663533333333333</v>
       </c>
       <c r="N4">
-        <v>2.08979185275661</v>
+        <v>0.229906</v>
       </c>
       <c r="O4">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="P4">
-        <v>0.6782817627547799</v>
+        <v>0.01131282971314188</v>
       </c>
       <c r="Q4">
-        <v>42.39968505292972</v>
+        <v>0.9772583943317777</v>
       </c>
       <c r="R4">
-        <v>42.39968505292972</v>
+        <v>8.795325548986</v>
       </c>
       <c r="S4">
-        <v>0.3348777446957164</v>
+        <v>0.001779646518861881</v>
       </c>
       <c r="T4">
-        <v>0.3348777446957164</v>
+        <v>0.001779646518861882</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2889512642137</v>
+        <v>12.75206033333333</v>
       </c>
       <c r="H5">
-        <v>20.2889512642137</v>
+        <v>38.256181</v>
       </c>
       <c r="I5">
-        <v>0.4937147997841498</v>
+        <v>0.1573122343381959</v>
       </c>
       <c r="J5">
-        <v>0.4937147997841498</v>
+        <v>0.157312234338196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9912166123230201</v>
+        <v>4.033858333333334</v>
       </c>
       <c r="N5">
-        <v>0.9912166123230201</v>
+        <v>12.101575</v>
       </c>
       <c r="O5">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="P5">
-        <v>0.3217182372452201</v>
+        <v>0.5954740512897225</v>
       </c>
       <c r="Q5">
-        <v>20.11074553970076</v>
+        <v>51.44000484278612</v>
       </c>
       <c r="R5">
-        <v>20.11074553970076</v>
+        <v>462.960043585075</v>
       </c>
       <c r="S5">
-        <v>0.1588370550884335</v>
+        <v>0.09367535349880374</v>
       </c>
       <c r="T5">
-        <v>0.1588370550884335</v>
+        <v>0.09367535349880375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.834440634491189</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>9.834440634491189</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2393129553921818</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="J6">
-        <v>0.2393129553921818</v>
+        <v>0.2510910513649196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.08979185275661</v>
+        <v>0.3530253333333334</v>
       </c>
       <c r="N6">
-        <v>2.08979185275661</v>
+        <v>1.059076</v>
       </c>
       <c r="O6">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="P6">
-        <v>0.6782817627547799</v>
+        <v>0.05211323950342944</v>
       </c>
       <c r="Q6">
-        <v>20.55193391437824</v>
+        <v>7.185466455531113</v>
       </c>
       <c r="R6">
-        <v>20.55193391437824</v>
+        <v>64.66919809978002</v>
       </c>
       <c r="S6">
-        <v>0.1623216132334651</v>
+        <v>0.01308516809694796</v>
       </c>
       <c r="T6">
-        <v>0.1623216132334651</v>
+        <v>0.01308516809694796</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20.35396833333334</v>
+      </c>
+      <c r="H7">
+        <v>61.06190500000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="J7">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N7">
+        <v>6.932033</v>
+      </c>
+      <c r="O7">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P7">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q7">
+        <v>47.03146005587389</v>
+      </c>
+      <c r="R7">
+        <v>423.283140502865</v>
+      </c>
+      <c r="S7">
+        <v>0.08564712736252209</v>
+      </c>
+      <c r="T7">
+        <v>0.0856471273625221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20.35396833333334</v>
+      </c>
+      <c r="H8">
+        <v>61.06190500000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="J8">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.229906</v>
+      </c>
+      <c r="O8">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P8">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q8">
+        <v>1.559833147881111</v>
+      </c>
+      <c r="R8">
+        <v>14.03849833093</v>
+      </c>
+      <c r="S8">
+        <v>0.002840550306585096</v>
+      </c>
+      <c r="T8">
+        <v>0.002840550306585096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.35396833333334</v>
+      </c>
+      <c r="H9">
+        <v>61.06190500000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="J9">
+        <v>0.2510910513649196</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N9">
+        <v>12.101575</v>
+      </c>
+      <c r="O9">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P9">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q9">
+        <v>82.10502477781947</v>
+      </c>
+      <c r="R9">
+        <v>738.9452230003751</v>
+      </c>
+      <c r="S9">
+        <v>0.1495182055988645</v>
+      </c>
+      <c r="T9">
+        <v>0.1495182055988645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.004706</v>
+      </c>
+      <c r="H10">
+        <v>0.014118</v>
+      </c>
+      <c r="I10">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J10">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3530253333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.059076</v>
+      </c>
+      <c r="O10">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="P10">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="Q10">
+        <v>0.001661337218666667</v>
+      </c>
+      <c r="R10">
+        <v>0.014952034968</v>
+      </c>
+      <c r="S10">
+        <v>3.025395345800483E-06</v>
+      </c>
+      <c r="T10">
+        <v>3.025395345800484E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="H7">
-        <v>9.834440634491189</v>
-      </c>
-      <c r="I7">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="J7">
-        <v>0.2393129553921818</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.9912166123230201</v>
-      </c>
-      <c r="N7">
-        <v>0.9912166123230201</v>
-      </c>
-      <c r="O7">
-        <v>0.3217182372452201</v>
-      </c>
-      <c r="P7">
-        <v>0.3217182372452201</v>
-      </c>
-      <c r="Q7">
-        <v>9.748060929812208</v>
-      </c>
-      <c r="R7">
-        <v>9.748060929812208</v>
-      </c>
-      <c r="S7">
-        <v>0.07699134215871674</v>
-      </c>
-      <c r="T7">
-        <v>0.07699134215871674</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.004706</v>
+      </c>
+      <c r="H11">
+        <v>0.014118</v>
+      </c>
+      <c r="I11">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J11">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.932033</v>
+      </c>
+      <c r="O11">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P11">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q11">
+        <v>0.01087404909933333</v>
+      </c>
+      <c r="R11">
+        <v>0.097866441894</v>
+      </c>
+      <c r="S11">
+        <v>1.980229971705086E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.980229971705087E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.004706</v>
+      </c>
+      <c r="H12">
+        <v>0.014118</v>
+      </c>
+      <c r="I12">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J12">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.229906</v>
+      </c>
+      <c r="O12">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P12">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q12">
+        <v>0.0003606458786666666</v>
+      </c>
+      <c r="R12">
+        <v>0.003245812908</v>
+      </c>
+      <c r="S12">
+        <v>6.567579119643971E-07</v>
+      </c>
+      <c r="T12">
+        <v>6.567579119643972E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.004706</v>
+      </c>
+      <c r="H13">
+        <v>0.014118</v>
+      </c>
+      <c r="I13">
+        <v>5.805425597465284E-05</v>
+      </c>
+      <c r="J13">
+        <v>5.805425597465285E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N13">
+        <v>12.101575</v>
+      </c>
+      <c r="O13">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P13">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q13">
+        <v>0.01898333731666667</v>
+      </c>
+      <c r="R13">
+        <v>0.17085003585</v>
+      </c>
+      <c r="S13">
+        <v>3.456980299983711E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.456980299983711E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>47.951367</v>
+      </c>
+      <c r="H14">
+        <v>143.854101</v>
+      </c>
+      <c r="I14">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J14">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3530253333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.059076</v>
+      </c>
+      <c r="O14">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="P14">
+        <v>0.05211323950342944</v>
+      </c>
+      <c r="Q14">
+        <v>16.928047318964</v>
+      </c>
+      <c r="R14">
+        <v>152.352425870676</v>
+      </c>
+      <c r="S14">
+        <v>0.03082699586624965</v>
+      </c>
+      <c r="T14">
+        <v>0.03082699586624966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>47.951367</v>
+      </c>
+      <c r="H15">
+        <v>143.854101</v>
+      </c>
+      <c r="I15">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J15">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.310677666666666</v>
+      </c>
+      <c r="N15">
+        <v>6.932033</v>
+      </c>
+      <c r="O15">
+        <v>0.3410998794937062</v>
+      </c>
+      <c r="P15">
+        <v>0.3410998794937063</v>
+      </c>
+      <c r="Q15">
+        <v>110.800152813037</v>
+      </c>
+      <c r="R15">
+        <v>997.201375317333</v>
+      </c>
+      <c r="S15">
+        <v>0.2017737656558228</v>
+      </c>
+      <c r="T15">
+        <v>0.2017737656558228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>47.951367</v>
+      </c>
+      <c r="H16">
+        <v>143.854101</v>
+      </c>
+      <c r="I16">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J16">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07663533333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.229906</v>
+      </c>
+      <c r="O16">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="P16">
+        <v>0.01131282971314188</v>
+      </c>
+      <c r="Q16">
+        <v>3.674768993834</v>
+      </c>
+      <c r="R16">
+        <v>33.072920944506</v>
+      </c>
+      <c r="S16">
+        <v>0.006691976129782936</v>
+      </c>
+      <c r="T16">
+        <v>0.006691976129782938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>47.951367</v>
+      </c>
+      <c r="H17">
+        <v>143.854101</v>
+      </c>
+      <c r="I17">
+        <v>0.5915386600409097</v>
+      </c>
+      <c r="J17">
+        <v>0.5915386600409098</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.033858333333334</v>
+      </c>
+      <c r="N17">
+        <v>12.101575</v>
+      </c>
+      <c r="O17">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="P17">
+        <v>0.5954740512897225</v>
+      </c>
+      <c r="Q17">
+        <v>193.429021367675</v>
+      </c>
+      <c r="R17">
+        <v>1740.861192309075</v>
+      </c>
+      <c r="S17">
+        <v>0.3522459223890544</v>
+      </c>
+      <c r="T17">
+        <v>0.3522459223890545</v>
       </c>
     </row>
   </sheetData>
